--- a/文档/Skill.xlsx
+++ b/文档/Skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,7 +153,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_shanxianchongzhuang</t>
+    <t>shanxiandaji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_shanxiandaji</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +544,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -665,7 +669,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
@@ -683,7 +687,7 @@
         <v>60</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.15">

--- a/文档/Skill.xlsx
+++ b/文档/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,42 @@
   </si>
   <si>
     <t>Skill_shanxiandaji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂载到Btn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillData类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设掉落了等级比现有技能等级高的skill1 和skill2 需要升级 skill1Script1 和skill1Script2 中的SkillLevel（通过SetSkillLevel方法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前使用的反射方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可登记任何技能，假设登记了skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    此过程不知怎么实现，暂用反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内含SkillData和实现技能的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +234,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -221,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,6 +281,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -252,6 +303,1123 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="椭圆 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267076" y="1209675"/>
+          <a:ext cx="1085850" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Player</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="椭圆 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="1209675"/>
+          <a:ext cx="1371600" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>PlayerSkillListSkillData</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>类型</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="椭圆 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6696075" y="2409824"/>
+          <a:ext cx="904875" cy="466726"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>skillN</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="椭圆 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="1438275"/>
+          <a:ext cx="866775" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>skill2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="椭圆 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="571500"/>
+          <a:ext cx="904875" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>skill1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352926" y="1643063"/>
+          <a:ext cx="438149" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>475409</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>137856</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="7"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5961809" y="771525"/>
+          <a:ext cx="724741" cy="566481"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="1647825"/>
+          <a:ext cx="561975" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>475409</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="5"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5961809" y="1957644"/>
+          <a:ext cx="734266" cy="685543"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="椭圆 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9858375" y="1409700"/>
+          <a:ext cx="904875" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Btn1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="771525"/>
+          <a:ext cx="685800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="椭圆 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="571500"/>
+          <a:ext cx="1171575" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>skill1Script</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="4"/>
+          <a:endCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8853488" y="971550"/>
+          <a:ext cx="1004887" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="椭圆 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="2476500"/>
+          <a:ext cx="1171575" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>skill2Script</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接箭头连接符 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="6"/>
+          <a:endCxn id="39" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="2676525"/>
+          <a:ext cx="419100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="椭圆 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781925" y="3390900"/>
+          <a:ext cx="1362075" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>掉落技能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>skill2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>606489</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>81499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>437596</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>17696</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接箭头连接符 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="1"/>
+          <a:endCxn id="5" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7464489" y="2824699"/>
+          <a:ext cx="516907" cy="621997"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="0"/>
+          <a:endCxn id="39" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8462963" y="2876550"/>
+          <a:ext cx="133350" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直接箭头连接符 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7029450" y="4352925"/>
+          <a:ext cx="457200" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>608677</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="图片 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="4933950"/>
+          <a:ext cx="7380952" cy="2000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -882,14 +2050,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F3:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="L10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="N13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="O14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="M19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/文档/Skill.xlsx
+++ b/文档/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>basic_damage_factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shanxianchongzhuang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>continue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +186,48 @@
   </si>
   <si>
     <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keycode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bond_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzaihuopao.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nengliangchang.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanxianchongzhuang.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> id, name, describe, img,  damage_factor, level, cd, mp_cost, script, bond_btn, keycode;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage_factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_nengliangchang</t>
+  </si>
+  <si>
+    <t>Skill_shanxiandaji</t>
+  </si>
+  <si>
+    <t>Skill_jianzaihuopao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1744,22 +1778,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1767,16 +1801,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
@@ -1791,7 +1825,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1799,16 +1833,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>0.2</v>
@@ -1823,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1831,16 +1865,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -1855,7 +1889,7 @@
         <v>60</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.15">
@@ -1873,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1885,17 +1919,21 @@
     <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="12" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1909,137 +1947,160 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="K2" s="2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>60</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>60</v>
-      </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H22" s="4"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H23" s="4"/>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2052,7 +2113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -2060,45 +2121,45 @@
   <sheetData>
     <row r="3" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="6:15" x14ac:dyDescent="0.15">
       <c r="K9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="6:15" x14ac:dyDescent="0.15">
       <c r="L10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="6:15" x14ac:dyDescent="0.15">
       <c r="N13" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="6:15" x14ac:dyDescent="0.15">
       <c r="O14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.15">
       <c r="M19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/文档/Skill.xlsx
+++ b/文档/Skill.xlsx
@@ -1,261 +1,224 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
+    <workbookView windowWidth="24180" windowHeight="13200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>damage_factor</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>mp_cost</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>舰载火炮</t>
+  </si>
+  <si>
+    <t>突突突</t>
+  </si>
+  <si>
+    <t>jianzaihuopao</t>
+  </si>
+  <si>
+    <t>攻击-弹道-单次</t>
+  </si>
+  <si>
+    <t>Skill_jianzaihuopao</t>
+  </si>
+  <si>
+    <t>能量场</t>
+  </si>
+  <si>
+    <t>烧烧烧</t>
+  </si>
+  <si>
+    <t>nengliangchang</t>
+  </si>
+  <si>
+    <t>攻击-范围-持续</t>
+  </si>
+  <si>
+    <t>Skill_nengliangchang</t>
+  </si>
+  <si>
+    <t>闪现冲撞</t>
+  </si>
+  <si>
+    <t>撞撞撞</t>
+  </si>
+  <si>
+    <t>shanxiandaji</t>
+  </si>
+  <si>
+    <t>攻击-范围-单次</t>
+  </si>
+  <si>
+    <t>Skill_shanxiandaji</t>
+  </si>
+  <si>
+    <t>bond_btn</t>
+  </si>
+  <si>
+    <t>keycode</t>
   </si>
   <si>
     <t>type_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>type_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>type_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp_cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舰载火炮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>突突突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jianzaihuopao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianzaihuopao.png</t>
+  </si>
+  <si>
+    <t>attack</t>
   </si>
   <si>
     <t>trajectory</t>
   </si>
   <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>single</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧烧烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nengliangchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪现冲撞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞撞撞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nengliangchang.png</t>
+  </si>
+  <si>
+    <t>range</t>
   </si>
   <si>
     <t>continue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击-弹道-单次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击-范围-持续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击-范围-单次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage_factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_jianzaihuopao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_nengliangchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shanxiandaji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_shanxiandaji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanxianchongzhuang.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id, name, describe, img,  damage_factor, level, cd, mp_cost, script, bond_btn, keycode;</t>
+  </si>
+  <si>
+    <t>假设掉落了等级比现有技能等级高的skill1 和skill2 需要升级 skill1Script1 和skill1Script2 中的SkillLevel（通过SetSkillLevel方法）</t>
+  </si>
+  <si>
+    <t>SkillData类型</t>
+  </si>
+  <si>
+    <t>内含SkillData和实现技能的代码</t>
+  </si>
+  <si>
+    <t>初始化</t>
   </si>
   <si>
     <t>挂载到Btn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillData类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假设掉落了等级比现有技能等级高的skill1 和skill2 需要升级 skill1Script1 和skill1Script2 中的SkillLevel（通过SetSkillLevel方法）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可登记任何技能，假设登记了skill1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    此过程不知怎么实现，暂用反射</t>
   </si>
   <si>
     <t>目前使用的反射方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可登记任何技能，假设登记了skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    此过程不知怎么实现，暂用反射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SkillData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内含SkillData和实现技能的代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keycode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bond_btn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jianzaihuopao.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nengliangchang.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shanxianchongzhuang.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> id, name, describe, img,  damage_factor, level, cd, mp_cost, script, bond_btn, keycode;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage_factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_nengliangchang</t>
-  </si>
-  <si>
-    <t>Skill_shanxiandaji</t>
-  </si>
-  <si>
-    <t>Skill_jianzaihuopao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>红色核心</t>
+  </si>
+  <si>
+    <t>增加30%攻击力</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>黄色核心</t>
+  </si>
+  <si>
+    <t>增加50%HP和MP恢复</t>
+  </si>
+  <si>
+    <t>hpmp</t>
+  </si>
+  <si>
+    <t>绿色核心</t>
+  </si>
+  <si>
+    <t>增加30%MaxHP</t>
+  </si>
+  <si>
+    <t>maxhp</t>
+  </si>
+  <si>
+    <t>id, name, describe, type,value;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -264,29 +227,363 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -294,9 +591,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -304,43 +843,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -354,14 +937,14 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="椭圆 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3267076" y="1209675"/>
+          <a:off x="3267075" y="2238375"/>
           <a:ext cx="1085850" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -412,14 +995,14 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="椭圆 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4791075" y="1209675"/>
+          <a:off x="4791075" y="2238375"/>
           <a:ext cx="1371600" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -455,6 +1038,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>类型</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -473,15 +1057,15 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="椭圆 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696075" y="2409824"/>
-          <a:ext cx="904875" cy="466726"/>
+          <a:off x="6696075" y="3437890"/>
+          <a:ext cx="904875" cy="467360"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -521,7 +1105,6 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
           <a:r>
@@ -557,14 +1140,14 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="椭圆 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6724650" y="1438275"/>
+          <a:off x="6724650" y="2466975"/>
           <a:ext cx="866775" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -605,7 +1188,6 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
           <a:r>
@@ -620,6 +1202,15 @@
             </a:rPr>
             <a:t>skill2</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -638,14 +1229,14 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="椭圆 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6686550" y="571500"/>
+          <a:off x="6686550" y="1600200"/>
           <a:ext cx="904875" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -696,7 +1287,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
         <xdr:cNvCxnSpPr>
@@ -706,8 +1297,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4352926" y="1643063"/>
-          <a:ext cx="438149" cy="4762"/>
+          <a:off x="4352925" y="2671445"/>
+          <a:ext cx="438150" cy="5080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -746,7 +1337,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>137856</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
         <xdr:cNvCxnSpPr>
@@ -756,8 +1347,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5961809" y="771525"/>
-          <a:ext cx="724741" cy="566481"/>
+          <a:off x="5961380" y="1800225"/>
+          <a:ext cx="725170" cy="566420"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -796,7 +1387,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
         <xdr:cNvCxnSpPr>
@@ -806,7 +1397,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162675" y="1647825"/>
+          <a:off x="6162675" y="2676525"/>
           <a:ext cx="561975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -846,7 +1437,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
         <xdr:cNvCxnSpPr>
@@ -856,8 +1447,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5961809" y="1957644"/>
-          <a:ext cx="734266" cy="685543"/>
+          <a:off x="5961380" y="2985770"/>
+          <a:ext cx="734695" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -896,14 +1487,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="椭圆 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9858375" y="1409700"/>
+          <a:off x="9858375" y="2438400"/>
           <a:ext cx="904875" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -954,7 +1545,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
         <xdr:cNvCxnSpPr>
@@ -963,7 +1554,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591425" y="771525"/>
+          <a:off x="7591425" y="1800225"/>
           <a:ext cx="685800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1003,14 +1594,14 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="椭圆 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8267700" y="571500"/>
+          <a:off x="8267700" y="1600200"/>
           <a:ext cx="1171575" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1061,7 +1652,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
         <xdr:cNvCxnSpPr>
@@ -1071,8 +1662,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8853488" y="971550"/>
-          <a:ext cx="1004887" cy="695325"/>
+          <a:off x="8853170" y="2000250"/>
+          <a:ext cx="1005205" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1111,7 +1702,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="39" name="椭圆 38"/>
         <xdr:cNvSpPr/>
@@ -1169,7 +1760,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="40" name="直接箭头连接符 39"/>
         <xdr:cNvCxnSpPr>
@@ -1219,7 +1810,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="44" name="椭圆 43"/>
         <xdr:cNvSpPr/>
@@ -1281,7 +1872,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>17696</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="46" name="直接箭头连接符 45"/>
         <xdr:cNvCxnSpPr>
@@ -1291,8 +1882,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7464489" y="2824699"/>
-          <a:ext cx="516907" cy="621997"/>
+          <a:off x="7464425" y="2824480"/>
+          <a:ext cx="516890" cy="621665"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1331,7 +1922,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
         <xdr:cNvCxnSpPr>
@@ -1341,7 +1932,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8462963" y="2876550"/>
+          <a:off x="8462645" y="2876550"/>
           <a:ext cx="133350" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1381,7 +1972,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="54" name="直接箭头连接符 53"/>
         <xdr:cNvCxnSpPr/>
@@ -1389,7 +1980,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="7029450" y="4352925"/>
-          <a:ext cx="457200" cy="1"/>
+          <a:ext cx="457200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1436,7 +2027,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1444,7 +2035,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4886325" y="4933950"/>
-          <a:ext cx="7380952" cy="2000000"/>
+          <a:ext cx="7380605" cy="1999615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1499,7 +2090,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1534,7 +2125,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1737,66 +2328,66 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="4" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="28.25" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1810,7 +2401,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
@@ -1825,24 +2416,24 @@
         <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>0.2</v>
@@ -1857,24 +2448,24 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:10">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -1889,95 +2480,96 @@
         <v>60</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F22" s="4"/>
+    <row r="22" spans="6:6">
+      <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F23" s="4"/>
+    <row r="23" spans="6:6">
+      <c r="F23" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="3"/>
-    <col min="13" max="13" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="4" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9" style="5"/>
+    <col min="13" max="13" width="8.5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1988,7 +2580,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -2003,30 +2595,30 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -2041,30 +2633,30 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -2079,93 +2671,187 @@
         <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>48</v>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E22" s="4"/>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E23" s="4"/>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="F3:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F3" s="6" t="s">
-        <v>36</v>
+    <row r="3" spans="6:6">
+      <c r="F3" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="11:13">
       <c r="K9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="12:12">
       <c r="L10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="N13" s="5" t="s">
-        <v>34</v>
+    <row r="13" spans="14:14">
+      <c r="N13" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="14" spans="6:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="13:13">
       <c r="M19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="26" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="12:12">
       <c r="L26" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>